--- a/update-description/ig/StructureDefinition-prescription.xlsx
+++ b/update-description/ig/StructureDefinition-prescription.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T09:38:52+00:00</t>
+    <t>2024-03-22T09:39:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/update-description/ig/StructureDefinition-prescription.xlsx
+++ b/update-description/ig/StructureDefinition-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T09:39:35+00:00</t>
+    <t>2024-03-22T09:51:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
